--- a/documentacao/5.OrganogramaInsighLab.xlsx
+++ b/documentacao/5.OrganogramaInsighLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\2 ESTUDO\20 FATEC 2S2024\PDC011_PROJETO_INTEGRADOR\projetoGrupo05\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0791EAA4-9554-4972-B75C-A5447C5F7C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F34908E-8B54-4E67-BDA6-3D38C65B1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0759B0C1-0AB1-4BDF-A422-1E59695B969C}"/>
   </bookViews>
@@ -75,17 +75,15 @@
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent5_3">
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
   <dgm:catLst>
-    <dgm:cat type="accent5" pri="11300"/>
+    <dgm:cat type="accent1" pri="11200"/>
   </dgm:catLst>
   <dgm:styleLbl name="node0">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -95,14 +93,21 @@
     <dgm:txFillClrLst/>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
   <dgm:styleLbl name="node1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -112,36 +117,9 @@
     <dgm:txFillClrLst/>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
-  <dgm:styleLbl name="alignNode1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
-    </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst/>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
   <dgm:styleLbl name="lnNode1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -152,13 +130,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="vennNode1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-        <a:alpha val="50000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
         <a:alpha val="50000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
@@ -171,10 +144,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="node2">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:tint val="99000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -185,10 +156,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="node3">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:tint val="80000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -199,10 +168,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="node4">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -213,12 +180,9 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="fgImgPlace1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
         <a:tint val="50000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="20000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
@@ -232,12 +196,9 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="alignImgPlace1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
         <a:tint val="50000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="20000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
@@ -251,12 +212,9 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="bgImgPlace1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
         <a:tint val="50000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="20000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
@@ -270,20 +228,14 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="sibTrans2D1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
@@ -292,68 +244,58 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="fgSibTrans2D1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
-    <dgm:txFillClrLst meth="repeat">
-      <a:schemeClr val="lt1"/>
-    </dgm:txFillClrLst>
+    <dgm:txFillClrLst/>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="bgSibTrans2D1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
     <dgm:txFillClrLst meth="repeat">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </dgm:txFillClrLst>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
-  <dgm:styleLbl name="sibTrans1D1">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
       </a:schemeClr>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
@@ -363,25 +305,9 @@
     </dgm:txFillClrLst>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
-  <dgm:styleLbl name="callout">
-    <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5"/>
-    </dgm:fillClrLst>
-    <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5"/>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst meth="repeat">
-      <a:schemeClr val="tx1"/>
-    </dgm:txFillClrLst>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
   <dgm:styleLbl name="asst0">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -393,9 +319,7 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="asst1">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -406,10 +330,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst2">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:tint val="99000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -420,10 +342,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst3">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:tint val="80000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -434,10 +354,8 @@
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst4">
-    <dgm:fillClrLst>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
@@ -449,12 +367,12 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="parChTrans2D1">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:linClrLst>
@@ -467,46 +385,10 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="parChTrans2D2">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="90000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="90000"/>
-      </a:schemeClr>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst/>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
-  <dgm:styleLbl name="parChTrans2D3">
-    <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
-    </dgm:fillClrLst>
-    <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst/>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
-  <dgm:styleLbl name="parChTrans2D4">
-    <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </dgm:fillClrLst>
-    <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="50000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -515,14 +397,72 @@
     </dgm:txFillClrLst>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
   <dgm:styleLbl name="parChTrans1D1">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
         <a:shade val="80000"/>
       </a:schemeClr>
     </dgm:linClrLst>
@@ -533,15 +473,13 @@
     </dgm:txFillClrLst>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
-  <dgm:styleLbl name="parChTrans1D2">
+  <dgm:styleLbl name="parChTrans1D4">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="99000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="99000"/>
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
       </a:schemeClr>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
@@ -551,55 +489,14 @@
     </dgm:txFillClrLst>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
-  <dgm:styleLbl name="parChTrans1D3">
-    <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="80000"/>
-      </a:schemeClr>
-    </dgm:fillClrLst>
-    <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="80000"/>
-      </a:schemeClr>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst meth="repeat">
-      <a:schemeClr val="tx1"/>
-    </dgm:txFillClrLst>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
-  <dgm:styleLbl name="parChTrans1D4">
-    <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
-    </dgm:fillClrLst>
-    <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst meth="repeat">
-      <a:schemeClr val="tx1"/>
-    </dgm:txFillClrLst>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
   <dgm:styleLbl name="fgAcc1">
     <dgm:fillClrLst meth="repeat">
       <a:schemeClr val="lt1">
         <a:alpha val="90000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -614,13 +511,8 @@
         <a:alpha val="90000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -635,13 +527,8 @@
         <a:alpha val="90000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -657,7 +544,7 @@
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -672,13 +559,8 @@
         <a:alpha val="90000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -691,13 +573,8 @@
     <dgm:fillClrLst meth="repeat">
       <a:schemeClr val="lt1"/>
     </dgm:fillClrLst>
-    <dgm:linClrLst>
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
-      </a:schemeClr>
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -711,7 +588,7 @@
       <a:schemeClr val="lt1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -725,7 +602,7 @@
       <a:schemeClr val="lt1"/>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -736,13 +613,13 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="fgAccFollowNode1">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:alpha val="90000"/>
         <a:tint val="40000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:alpha val="90000"/>
         <a:tint val="40000"/>
       </a:schemeClr>
@@ -756,13 +633,13 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="alignAccFollowNode1">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:alpha val="90000"/>
         <a:tint val="40000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:alpha val="90000"/>
         <a:tint val="40000"/>
       </a:schemeClr>
@@ -776,30 +653,15 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="bgAccFollowNode1">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:alpha val="90000"/>
         <a:tint val="40000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="lt1"/>
-    </dgm:linClrLst>
-    <dgm:effectClrLst/>
-    <dgm:txLinClrLst/>
-    <dgm:txFillClrLst meth="repeat">
-      <a:schemeClr val="dk1"/>
-    </dgm:txFillClrLst>
-    <dgm:txEffectClrLst/>
-  </dgm:styleLbl>
-  <dgm:styleLbl name="fgAcc0">
-    <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="accent1">
         <a:alpha val="90000"/>
-      </a:schemeClr>
-    </dgm:fillClrLst>
-    <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:shade val="80000"/>
+        <a:tint val="40000"/>
       </a:schemeClr>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
@@ -809,6 +671,22 @@
     </dgm:txFillClrLst>
     <dgm:txEffectClrLst/>
   </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
   <dgm:styleLbl name="fgAcc2">
     <dgm:fillClrLst meth="repeat">
       <a:schemeClr val="lt1">
@@ -816,9 +694,7 @@
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="99000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -834,9 +710,7 @@
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="80000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -852,9 +726,7 @@
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="70000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -865,12 +737,12 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="bgShp">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:tint val="40000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -881,12 +753,12 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="dkBgShp">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:shade val="90000"/>
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -897,13 +769,13 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="trBgShp">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
         <a:tint val="50000"/>
         <a:alpha val="40000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
-      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent1"/>
     </dgm:linClrLst>
     <dgm:effectClrLst/>
     <dgm:txLinClrLst/>
@@ -914,8 +786,8 @@
   </dgm:styleLbl>
   <dgm:styleLbl name="fgShp">
     <dgm:fillClrLst meth="repeat">
-      <a:schemeClr val="accent5">
-        <a:tint val="40000"/>
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
@@ -953,7 +825,7 @@
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{CE8BB443-F0BE-43DC-836C-1C7BC734525F}" type="doc">
-      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple5" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent5_3" csCatId="accent5" phldr="1"/>
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple5" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2221,7 +2093,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{559922EE-4545-491E-B70C-0F9635934E8C}" type="pres">
-      <dgm:prSet presAssocID="{85A73317-70E2-43C1-B96B-3075618B937A}" presName="text4" presStyleLbl="revTx" presStyleIdx="10" presStyleCnt="22" custScaleX="76133" custLinFactNeighborX="-13905">
+      <dgm:prSet presAssocID="{85A73317-70E2-43C1-B96B-3075618B937A}" presName="text4" presStyleLbl="revTx" presStyleIdx="10" presStyleCnt="22" custScaleX="83534" custLinFactNeighborX="-9657">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2263,7 +2135,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{CE098FA8-6A37-4FBC-9FB7-077E9C84640D}" type="pres">
-      <dgm:prSet presAssocID="{3A0567DF-3917-4BB0-8CFF-15AC90CBB1D3}" presName="text4" presStyleLbl="revTx" presStyleIdx="11" presStyleCnt="22" custScaleX="88332" custLinFactNeighborX="-2729">
+      <dgm:prSet presAssocID="{3A0567DF-3917-4BB0-8CFF-15AC90CBB1D3}" presName="text4" presStyleLbl="revTx" presStyleIdx="11" presStyleCnt="22" custScaleX="110937" custLinFactNeighborX="2955">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2347,7 +2219,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{76CE45E1-3053-43B5-8665-5710DA88AC80}" type="pres">
-      <dgm:prSet presAssocID="{FE24A264-BEB4-40A0-AE0A-1069A48D0135}" presName="text4" presStyleLbl="revTx" presStyleIdx="13" presStyleCnt="22" custScaleX="103346" custScaleY="114395" custLinFactNeighborX="5024">
+      <dgm:prSet presAssocID="{FE24A264-BEB4-40A0-AE0A-1069A48D0135}" presName="text4" presStyleLbl="revTx" presStyleIdx="13" presStyleCnt="22" custScaleX="129815" custScaleY="81191" custLinFactNeighborX="12064">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2515,7 +2387,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{D4074FB4-BE76-4EFF-9379-4F56BAB0C90B}" type="pres">
-      <dgm:prSet presAssocID="{9C47766C-AB07-4114-9A5F-FF51ED2B0153}" presName="text4" presStyleLbl="revTx" presStyleIdx="17" presStyleCnt="22" custScaleX="82032" custLinFactNeighborX="-8976">
+      <dgm:prSet presAssocID="{9C47766C-AB07-4114-9A5F-FF51ED2B0153}" presName="text4" presStyleLbl="revTx" presStyleIdx="17" presStyleCnt="22" custScaleX="97964" custLinFactNeighborX="-1926">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2557,7 +2429,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{6B83B99B-54BF-4F3E-AA3B-A9F48439C5ED}" type="pres">
-      <dgm:prSet presAssocID="{3DCB5DB6-42F6-45C3-B8E4-39FEB580D1AA}" presName="text4" presStyleLbl="revTx" presStyleIdx="18" presStyleCnt="22" custScaleX="68439" custLinFactNeighborX="-12463">
+      <dgm:prSet presAssocID="{3DCB5DB6-42F6-45C3-B8E4-39FEB580D1AA}" presName="text4" presStyleLbl="revTx" presStyleIdx="18" presStyleCnt="22" custScaleX="85216" custLinFactNeighborX="-9643">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2641,7 +2513,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{A6257425-3A1D-4540-9C90-AE4B6BB7D4C7}" type="pres">
-      <dgm:prSet presAssocID="{471A75F3-E296-42DE-9CA3-E1B8D70291B5}" presName="text4" presStyleLbl="revTx" presStyleIdx="20" presStyleCnt="22" custScaleX="68960" custLinFactNeighborX="-14580">
+      <dgm:prSet presAssocID="{471A75F3-E296-42DE-9CA3-E1B8D70291B5}" presName="text4" presStyleLbl="revTx" presStyleIdx="20" presStyleCnt="22" custScaleX="85466" custLinFactNeighborX="-9028">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2683,7 +2555,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{29A5A7D5-5A8B-45F2-8153-934FE0FBE4E3}" type="pres">
-      <dgm:prSet presAssocID="{A62C05BE-FC11-49D0-9800-7F7E98FC69F1}" presName="text4" presStyleLbl="revTx" presStyleIdx="21" presStyleCnt="22" custScaleX="66603" custLinFactNeighborX="-13545">
+      <dgm:prSet presAssocID="{A62C05BE-FC11-49D0-9800-7F7E98FC69F1}" presName="text4" presStyleLbl="revTx" presStyleIdx="21" presStyleCnt="22" custScaleX="103007" custLinFactNeighborX="-979">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2923,8 +2795,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9839418" y="2978708"/>
-          <a:ext cx="483530" cy="110064"/>
+          <a:off x="8103914" y="2876472"/>
+          <a:ext cx="365682" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2935,16 +2807,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="483530" y="55469"/>
+                <a:pt x="365682" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="483530" y="110064"/>
+                <a:pt x="365682" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2952,8 +2824,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -2985,8 +2857,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9443407" y="2978708"/>
-          <a:ext cx="396010" cy="110064"/>
+          <a:off x="7731933" y="2876472"/>
+          <a:ext cx="371981" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2997,16 +2869,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="396010" y="0"/>
+                <a:pt x="371981" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="396010" y="55469"/>
+                <a:pt x="371981" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3014,8 +2886,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3047,8 +2919,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8953198" y="2519231"/>
-          <a:ext cx="886219" cy="110064"/>
+          <a:off x="7350650" y="2509176"/>
+          <a:ext cx="753264" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3059,16 +2931,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="886219" y="55469"/>
+                <a:pt x="753264" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="886219" y="110064"/>
+                <a:pt x="753264" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3076,8 +2948,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="80000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3109,8 +2981,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8066979" y="2978708"/>
-          <a:ext cx="498252" cy="110064"/>
+          <a:off x="6597386" y="2876472"/>
+          <a:ext cx="397407" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3121,16 +2993,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="498252" y="55469"/>
+                <a:pt x="397407" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="498252" y="110064"/>
+                <a:pt x="397407" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3138,8 +3010,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3171,8 +3043,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7651434" y="2978708"/>
-          <a:ext cx="415544" cy="110064"/>
+          <a:off x="6230949" y="2876472"/>
+          <a:ext cx="366437" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3183,16 +3055,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="415544" y="0"/>
+                <a:pt x="366437" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="415544" y="55469"/>
+                <a:pt x="366437" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3200,8 +3072,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3233,8 +3105,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8066979" y="2519231"/>
-          <a:ext cx="886219" cy="110064"/>
+          <a:off x="6597386" y="2509176"/>
+          <a:ext cx="753264" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3245,16 +3117,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="886219" y="0"/>
+                <a:pt x="753264" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="886219" y="55469"/>
+                <a:pt x="753264" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3262,8 +3134,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="80000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3295,8 +3167,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5283514" y="2059753"/>
-          <a:ext cx="3669683" cy="110064"/>
+          <a:off x="4318482" y="2141880"/>
+          <a:ext cx="3032167" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3307,16 +3179,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3669683" y="55469"/>
+                <a:pt x="3032167" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3669683" y="110064"/>
+                <a:pt x="3032167" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3324,8 +3196,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="99000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3357,8 +3229,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6245502" y="2978708"/>
-          <a:ext cx="524604" cy="110064"/>
+          <a:off x="5079353" y="2876472"/>
+          <a:ext cx="447081" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3369,16 +3241,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="524604" y="55469"/>
+                <a:pt x="447081" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="524604" y="110064"/>
+                <a:pt x="447081" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3386,8 +3258,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3419,8 +3291,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5800453" y="2978708"/>
-          <a:ext cx="445048" cy="135213"/>
+          <a:off x="4695867" y="2876472"/>
+          <a:ext cx="383486" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3431,16 +3303,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="445048" y="0"/>
+                <a:pt x="383486" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="445048" y="80618"/>
+                <a:pt x="383486" y="89362"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="80618"/>
+                <a:pt x="0" y="89362"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="135213"/>
+                <a:pt x="0" y="133005"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3448,8 +3320,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3481,8 +3353,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5325595" y="2519231"/>
-          <a:ext cx="919906" cy="110064"/>
+          <a:off x="4314423" y="2509176"/>
+          <a:ext cx="764929" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3493,16 +3365,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="919906" y="55469"/>
+                <a:pt x="764929" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="919906" y="110064"/>
+                <a:pt x="764929" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3510,8 +3382,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="80000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3543,8 +3415,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4405688" y="2978708"/>
-          <a:ext cx="464457" cy="110064"/>
+          <a:off x="3549494" y="2876472"/>
+          <a:ext cx="355352" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3555,16 +3427,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="464457" y="55469"/>
+                <a:pt x="355352" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="464457" y="110064"/>
+                <a:pt x="355352" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3572,8 +3444,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3605,8 +3477,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3971808" y="2978708"/>
-          <a:ext cx="433880" cy="110064"/>
+          <a:off x="3171230" y="2876472"/>
+          <a:ext cx="378263" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3617,16 +3489,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="433880" y="0"/>
+                <a:pt x="378263" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="433880" y="55469"/>
+                <a:pt x="378263" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3634,8 +3506,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3667,8 +3539,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4405688" y="2519231"/>
-          <a:ext cx="919906" cy="110064"/>
+          <a:off x="3549494" y="2509176"/>
+          <a:ext cx="764929" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3679,16 +3551,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="919906" y="0"/>
+                <a:pt x="764929" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="919906" y="55469"/>
+                <a:pt x="764929" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3696,8 +3568,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="80000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3729,8 +3601,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5237794" y="2059753"/>
-          <a:ext cx="91440" cy="110064"/>
+          <a:off x="4268703" y="2141880"/>
+          <a:ext cx="91440" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3741,16 +3613,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="49779" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="55469"/>
+                <a:pt x="49779" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="87800" y="55469"/>
+                <a:pt x="45720" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="87800" y="110064"/>
+                <a:pt x="45720" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3758,8 +3630,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="99000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3791,8 +3663,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2564921" y="2978708"/>
-          <a:ext cx="500028" cy="110064"/>
+          <a:off x="2046596" y="2876472"/>
+          <a:ext cx="399711" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3803,16 +3675,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="500028" y="55469"/>
+                <a:pt x="399711" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="500028" y="110064"/>
+                <a:pt x="399711" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3820,8 +3692,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3853,8 +3725,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2104065" y="2978708"/>
-          <a:ext cx="460855" cy="110064"/>
+          <a:off x="1678198" y="2876472"/>
+          <a:ext cx="368397" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3865,16 +3737,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="460855" y="0"/>
+                <a:pt x="368397" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="460855" y="55469"/>
+                <a:pt x="368397" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3882,8 +3754,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3915,8 +3787,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1613830" y="2519231"/>
-          <a:ext cx="951091" cy="110064"/>
+          <a:off x="1286315" y="2509176"/>
+          <a:ext cx="760281" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3927,16 +3799,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="951091" y="55469"/>
+                <a:pt x="760281" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="951091" y="110064"/>
+                <a:pt x="760281" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3944,8 +3816,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="80000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -3977,8 +3849,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="662739" y="2978708"/>
-          <a:ext cx="480442" cy="110064"/>
+          <a:off x="526034" y="2876472"/>
+          <a:ext cx="384054" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3989,16 +3861,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="480442" y="55469"/>
+                <a:pt x="384054" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="480442" y="110064"/>
+                <a:pt x="384054" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4006,8 +3878,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4039,8 +3911,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="182297" y="2978708"/>
-          <a:ext cx="480442" cy="110064"/>
+          <a:off x="141979" y="2876472"/>
+          <a:ext cx="384054" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4051,16 +3923,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="480442" y="0"/>
+                <a:pt x="384054" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="480442" y="55469"/>
+                <a:pt x="384054" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4068,8 +3940,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="70000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4101,8 +3973,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="662739" y="2519231"/>
-          <a:ext cx="951091" cy="110064"/>
+          <a:off x="526034" y="2509176"/>
+          <a:ext cx="760281" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4113,16 +3985,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="951091" y="0"/>
+                <a:pt x="760281" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="951091" y="55469"/>
+                <a:pt x="760281" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4130,8 +4002,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="80000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4163,8 +4035,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1613830" y="2059753"/>
-          <a:ext cx="3669683" cy="110064"/>
+          <a:off x="1286315" y="2141880"/>
+          <a:ext cx="3032167" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4175,16 +4047,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3669683" y="0"/>
+                <a:pt x="3032167" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3669683" y="55469"/>
+                <a:pt x="3032167" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="55469"/>
+                <a:pt x="0" y="90060"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="110064"/>
+                <a:pt x="0" y="133703"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4192,8 +4064,8 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:tint val="99000"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4225,8 +4097,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5108808" y="1710341"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="4178826" y="1908287"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4277,8 +4149,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5458220" y="1709467"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="4458139" y="1907589"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,8 +4198,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5458220" y="1709467"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="4458139" y="1907589"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9C31D818-38CA-4F31-872B-514D0F946B3C}">
@@ -4337,8 +4209,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1439124" y="2169818"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="1146658" y="2275583"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4389,8 +4261,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1788536" y="2168945"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="1425971" y="2274885"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4438,8 +4310,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1788536" y="2168945"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="1425971" y="2274885"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1250F72D-60DB-43B0-834A-5EA96D96D80F}">
@@ -4449,8 +4321,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="488033" y="2629296"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="386377" y="2642879"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4501,8 +4373,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="837445" y="2628422"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="665690" y="2642181"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,8 +4422,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="837445" y="2628422"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="665690" y="2642181"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6F392430-3A4B-4377-99E5-2B841107A9A2}">
@@ -4561,8 +4433,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7591" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="2322" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4613,8 +4485,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="357003" y="3087899"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="281635" y="3009477"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4662,8 +4534,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="357003" y="3087899"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="281635" y="3009477"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{06617EAB-A912-4FFB-8349-3E44430D3112}">
@@ -4673,8 +4545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="968475" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="770432" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4725,8 +4597,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1317887" y="3087899"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="1049745" y="3009477"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,8 +4646,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1317887" y="3087899"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="1049745" y="3009477"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{41BBEB59-EF70-4AEA-9881-EB5BF6EE3538}">
@@ -4785,8 +4657,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2375362" y="2629296"/>
-          <a:ext cx="379119" cy="349412"/>
+          <a:off x="1895066" y="2642879"/>
+          <a:ext cx="303059" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4837,8 +4709,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2757489" y="2628422"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="2200531" y="2642181"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4886,8 +4758,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2757489" y="2628422"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="2200531" y="2642181"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EA21AC87-C4DC-4853-9264-DC2EBF7A7DFD}">
@@ -4897,8 +4769,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1929359" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="1538542" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4949,8 +4821,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2278772" y="3087899"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="1817854" y="3009477"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4998,8 +4870,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2278772" y="3087899"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="1817854" y="3009477"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FC1DFEE3-2398-4E16-AE3D-4F2635645B02}">
@@ -5009,8 +4881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2890243" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="2306651" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5061,8 +4933,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3240096" y="3087899"/>
-          <a:ext cx="416066" cy="349412"/>
+          <a:off x="2586316" y="3009477"/>
+          <a:ext cx="332594" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5110,8 +4982,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3240096" y="3087899"/>
-        <a:ext cx="416066" cy="349412"/>
+        <a:off x="2586316" y="3009477"/>
+        <a:ext cx="332594" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FE90BA29-306C-4AB5-9943-DA8459E09443}">
@@ -5121,8 +4993,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5150889" y="2169818"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="4174767" y="2275583"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5173,8 +5045,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5500301" y="2168945"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="4454080" y="2274885"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5222,8 +5094,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5500301" y="2168945"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="4454080" y="2274885"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB71D438-1DB2-4E92-A4B5-676418847572}">
@@ -5233,8 +5105,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4230982" y="2629296"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="3409837" y="2642879"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5285,8 +5157,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4580395" y="2628422"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="3689150" y="2642181"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5334,8 +5206,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4580395" y="2628422"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="3689150" y="2642181"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{26773E47-B122-45D3-855E-B793488FF916}">
@@ -5345,8 +5217,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3797101" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="3031574" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5397,8 +5269,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4136181" y="3087899"/>
-          <a:ext cx="399027" cy="349412"/>
+          <a:off x="3304920" y="3009477"/>
+          <a:ext cx="349981" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5446,8 +5318,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4136181" y="3087899"/>
-        <a:ext cx="399027" cy="349412"/>
+        <a:off x="3304920" y="3009477"/>
+        <a:ext cx="349981" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{573EDEF5-5CD1-41FF-ACBE-3DF79E8F3D63}">
@@ -5457,8 +5329,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4695440" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="3765190" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5509,8 +5381,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5061126" y="3087899"/>
-          <a:ext cx="462964" cy="349412"/>
+          <a:off x="4033972" y="3009477"/>
+          <a:ext cx="464791" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5559,8 +5431,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5061126" y="3087899"/>
-        <a:ext cx="462964" cy="349412"/>
+        <a:off x="4033972" y="3009477"/>
+        <a:ext cx="464791" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{148A9995-87EC-442A-BF71-CEDE53EA2019}">
@@ -5570,8 +5442,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6070795" y="2629296"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="4939697" y="2642879"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5622,8 +5494,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6420208" y="2628422"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="5219009" y="2642181"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5671,8 +5543,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6420208" y="2628422"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="5219009" y="2642181"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4F024B8E-5D77-44F1-B629-61CD8E2D6DD0}">
@@ -5682,8 +5554,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5625747" y="3113922"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="4556211" y="3009477"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5734,8 +5606,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5992723" y="3087899"/>
-          <a:ext cx="541655" cy="399710"/>
+          <a:off x="4823610" y="3035047"/>
+          <a:ext cx="543884" cy="226776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5784,8 +5656,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5992723" y="3087899"/>
-        <a:ext cx="541655" cy="399710"/>
+        <a:off x="4823610" y="3035047"/>
+        <a:ext cx="543884" cy="226776"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8C851992-24F3-4B62-BB29-6CA271940DAF}">
@@ -5795,8 +5667,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6595400" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="5386778" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5847,8 +5719,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6957475" y="3087899"/>
-          <a:ext cx="365006" cy="349412"/>
+          <a:off x="5676213" y="3009477"/>
+          <a:ext cx="291778" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5897,8 +5769,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6957475" y="3087899"/>
-        <a:ext cx="365006" cy="349412"/>
+        <a:off x="5676213" y="3009477"/>
+        <a:ext cx="291778" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{87D3AC67-E8C0-4DD3-AF56-A54675796D39}">
@@ -5908,8 +5780,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8778492" y="2169818"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="7210994" y="2275583"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5960,8 +5832,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9127904" y="2168945"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="7490306" y="2274885"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6009,8 +5881,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9127904" y="2168945"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="7490306" y="2274885"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D71F757-A244-4130-80E7-9F8318DBB160}">
@@ -6020,8 +5892,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7892272" y="2629296"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="6457730" y="2642879"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6072,8 +5944,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241685" y="2628422"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="6737042" y="2642181"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6121,8 +5993,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8241685" y="2628422"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="6737042" y="2642181"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B5516094-8002-4561-835D-8A1E31A99B4A}">
@@ -6132,8 +6004,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7476728" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="6091293" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6184,8 +6056,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7826182" y="3087899"/>
-          <a:ext cx="429945" cy="349412"/>
+          <a:off x="6366801" y="3009477"/>
+          <a:ext cx="410438" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6234,8 +6106,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7826182" y="3087899"/>
-        <a:ext cx="429945" cy="349412"/>
+        <a:off x="6366801" y="3009477"/>
+        <a:ext cx="410438" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D09ADDAA-7C47-404F-B5F5-44E87A97673F}">
@@ -6245,8 +6117,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8390525" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="6855137" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6297,8 +6169,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8757325" y="3087899"/>
-          <a:ext cx="358701" cy="349412"/>
+          <a:off x="7125019" y="3009477"/>
+          <a:ext cx="357028" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6347,8 +6219,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8757325" y="3087899"/>
-        <a:ext cx="358701" cy="349412"/>
+        <a:off x="7125019" y="3009477"/>
+        <a:ext cx="357028" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EBD4C9B2-EDC4-4292-BB42-6C954E705E13}">
@@ -6358,8 +6230,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9664712" y="2629296"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="7964258" y="2642879"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6410,8 +6282,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10014124" y="2628422"/>
-          <a:ext cx="524118" cy="349412"/>
+          <a:off x="8243570" y="2642181"/>
+          <a:ext cx="418968" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6459,8 +6331,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10014124" y="2628422"/>
-        <a:ext cx="524118" cy="349412"/>
+        <a:off x="8243570" y="2642181"/>
+        <a:ext cx="418968" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{740876E6-F5BF-40DC-BCAF-A91ED8FBB918}">
@@ -6470,8 +6342,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9268701" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="7592277" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6522,8 +6394,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9623040" y="3087899"/>
-          <a:ext cx="361432" cy="349412"/>
+          <a:off x="7864211" y="3009477"/>
+          <a:ext cx="358075" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6572,8 +6444,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9623040" y="3087899"/>
-        <a:ext cx="361432" cy="349412"/>
+        <a:off x="7864211" y="3009477"/>
+        <a:ext cx="358075" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{49C7AFDA-958E-4DD9-8AAB-958FA03F032A}">
@@ -6583,8 +6455,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10148242" y="3088773"/>
-          <a:ext cx="349412" cy="349412"/>
+          <a:off x="8329940" y="3010175"/>
+          <a:ext cx="279312" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6635,8 +6507,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10514183" y="3087899"/>
-          <a:ext cx="349078" cy="349412"/>
+          <a:off x="8598852" y="3009477"/>
+          <a:ext cx="431567" cy="279312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6685,8 +6557,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10514183" y="3087899"/>
-        <a:ext cx="349078" cy="349412"/>
+        <a:off x="8598852" y="3009477"/>
+        <a:ext cx="431567" cy="279312"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8293,13 +8165,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>160733</xdr:colOff>
+      <xdr:colOff>160734</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172640</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -8629,7 +8501,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentacao/5.OrganogramaInsighLab.xlsx
+++ b/documentacao/5.OrganogramaInsighLab.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\2 ESTUDO\20 FATEC 2S2024\PDC011_PROJETO_INTEGRADOR\projetoGrupo05\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F34908E-8B54-4E67-BDA6-3D38C65B1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7512F324-8D7D-4EF7-8543-7506F7F85816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0759B0C1-0AB1-4BDF-A422-1E59695B969C}"/>
   </bookViews>
   <sheets>
-    <sheet name="OrganogramaInsightLab" sheetId="1" r:id="rId1"/>
+    <sheet name="OrganogramaInsightLab (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="OrganogramaInsightLab" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -821,7 +822,1212 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{CE8BB443-F0BE-43DC-836C-1C7BC734525F}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple5" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}">
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" u="none">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1" u="none">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CEO</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4056F4EE-E941-4E1D-BAFD-FD8D972DDA28}" type="parTrans" cxnId="{9081AE25-9802-478D-9884-B613072CBFA1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B608C1CF-2C70-4E74-949E-6F707FD773D9}" type="sibTrans" cxnId="{9081AE25-9802-478D-9884-B613072CBFA1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}">
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Samuel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Cientista de Dados</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97151A69-8AC4-4E59-A190-BBF5924C9707}" type="parTrans" cxnId="{D1D60773-05C1-4C72-B639-FEA0B7E8B81A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9E85E64C-8AF0-4F74-8521-21D354B59B2E}" type="sibTrans" cxnId="{D1D60773-05C1-4C72-B639-FEA0B7E8B81A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}">
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Bruno</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Especialista em Marketing</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{85513BCE-0136-4707-AF97-7073260FFC5A}" type="parTrans" cxnId="{87EF378D-9551-44A4-A163-D60D1F56A079}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8E53C8A5-AF73-40A8-9AF8-1FACB79BB4BE}" type="sibTrans" cxnId="{87EF378D-9551-44A4-A163-D60D1F56A079}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9365632C-46E0-4E2A-B06E-B83C250F470A}">
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Henrique</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Engenheiro de Dados</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{702AA3FA-143C-4829-807B-3E2165D82E41}" type="sibTrans" cxnId="{EDD81E6A-3846-498B-8418-62C793CE0226}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DE57D657-D8FF-4197-9C8A-5E9C24C0DDD5}" type="parTrans" cxnId="{EDD81E6A-3846-498B-8418-62C793CE0226}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR">
+            <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4223B999-8A23-4E10-812F-965087AF48EA}" type="pres">
+      <dgm:prSet presAssocID="{CE8BB443-F0BE-43DC-836C-1C7BC734525F}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E08B885A-B4AB-4B46-A5A5-BEFD1BA3E65F}" type="pres">
+      <dgm:prSet presAssocID="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" presName="hierRoot1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CC762ED6-5B61-4C60-A576-7FBDA3ECF48A}" type="pres">
+      <dgm:prSet presAssocID="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4A882EA-FF5E-4A5C-8421-3E5B85E78209}" type="pres">
+      <dgm:prSet presAssocID="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" presName="image" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{E6C236BA-47DB-4A4C-BAEE-CC94295378F3}" type="pres">
+      <dgm:prSet presAssocID="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" presName="text" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" type="pres">
+      <dgm:prSet presAssocID="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2FDAE205-C724-4E58-A594-77408E464546}" type="pres">
+      <dgm:prSet presAssocID="{DE57D657-D8FF-4197-9C8A-5E9C24C0DDD5}" presName="Name10" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{45F84F5F-3048-4CF5-A7C7-0622EC377D4B}" type="pres">
+      <dgm:prSet presAssocID="{9365632C-46E0-4E2A-B06E-B83C250F470A}" presName="hierRoot2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DFF6ED41-9DB4-41F8-B85F-2CB7F7363D5A}" type="pres">
+      <dgm:prSet presAssocID="{9365632C-46E0-4E2A-B06E-B83C250F470A}" presName="composite2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9C31D818-38CA-4F31-872B-514D0F946B3C}" type="pres">
+      <dgm:prSet presAssocID="{9365632C-46E0-4E2A-B06E-B83C250F470A}" presName="image2" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-3000" b="-3000"/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{4DA573F1-D525-4439-8C4D-D9CEA0C30E85}" type="pres">
+      <dgm:prSet presAssocID="{9365632C-46E0-4E2A-B06E-B83C250F470A}" presName="text2" presStyleLbl="revTx" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F24DFF40-5795-4D18-A23E-AFD2B45B9666}" type="pres">
+      <dgm:prSet presAssocID="{9365632C-46E0-4E2A-B06E-B83C250F470A}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FC2B7DA-9B5C-4F6C-B9A9-0264948C0F1B}" type="pres">
+      <dgm:prSet presAssocID="{97151A69-8AC4-4E59-A190-BBF5924C9707}" presName="Name10" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BCFCA790-8F74-4A41-B416-43DE854589F7}" type="pres">
+      <dgm:prSet presAssocID="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" presName="hierRoot2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{40E48857-8E20-4ADB-B1A5-CB475ACDB7E9}" type="pres">
+      <dgm:prSet presAssocID="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" presName="composite2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8145B53E-A820-47C9-9684-D75FAE547C8B}" type="pres">
+      <dgm:prSet presAssocID="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" presName="image2" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-12000" b="-12000"/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{D3AD48EB-D334-4A0B-9EEC-A5B369473332}" type="pres">
+      <dgm:prSet presAssocID="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" presName="text2" presStyleLbl="revTx" presStyleIdx="2" presStyleCnt="4" custScaleX="100574">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AA08CC8F-F9D6-4F7E-B961-C81592FC458B}" type="pres">
+      <dgm:prSet presAssocID="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A9533BBE-D8AB-4791-A098-50F5AE35DD98}" type="pres">
+      <dgm:prSet presAssocID="{85513BCE-0136-4707-AF97-7073260FFC5A}" presName="Name10" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{68CF7398-602D-447C-8B37-3CAF253E350F}" type="pres">
+      <dgm:prSet presAssocID="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" presName="hierRoot2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F3622770-31AE-4672-A4A7-2138BAC891C8}" type="pres">
+      <dgm:prSet presAssocID="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" presName="composite2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FE90BA29-306C-4AB5-9943-DA8459E09443}" type="pres">
+      <dgm:prSet presAssocID="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" presName="image2" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-11000" b="-11000"/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{23B88E34-D5AC-41A4-B7CA-96402FEC298E}" type="pres">
+      <dgm:prSet presAssocID="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" presName="text2" presStyleLbl="revTx" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8654E369-8807-4AEA-B3AC-9BE652B659E5}" type="pres">
+      <dgm:prSet presAssocID="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{A1A8EF09-B36E-451B-BB66-3CC0A446E389}" type="presOf" srcId="{DE57D657-D8FF-4197-9C8A-5E9C24C0DDD5}" destId="{2FDAE205-C724-4E58-A594-77408E464546}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{D1C97123-F666-4FBE-80FE-26C8EB599E81}" type="presOf" srcId="{9365632C-46E0-4E2A-B06E-B83C250F470A}" destId="{4DA573F1-D525-4439-8C4D-D9CEA0C30E85}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{9081AE25-9802-478D-9884-B613072CBFA1}" srcId="{CE8BB443-F0BE-43DC-836C-1C7BC734525F}" destId="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" srcOrd="0" destOrd="0" parTransId="{4056F4EE-E941-4E1D-BAFD-FD8D972DDA28}" sibTransId="{B608C1CF-2C70-4E74-949E-6F707FD773D9}"/>
+    <dgm:cxn modelId="{00ECDD2E-3129-4EEA-AB9F-88DD6687C8F5}" type="presOf" srcId="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" destId="{E6C236BA-47DB-4A4C-BAEE-CC94295378F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{E994343D-4CDA-415F-BDE3-C7DE946C532E}" type="presOf" srcId="{CE8BB443-F0BE-43DC-836C-1C7BC734525F}" destId="{4223B999-8A23-4E10-812F-965087AF48EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{897F9A64-0492-483A-8815-80E931843154}" type="presOf" srcId="{85513BCE-0136-4707-AF97-7073260FFC5A}" destId="{A9533BBE-D8AB-4791-A098-50F5AE35DD98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{57DAEE64-28A7-43F8-A081-4EFEA7032A20}" type="presOf" srcId="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" destId="{23B88E34-D5AC-41A4-B7CA-96402FEC298E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{EDD81E6A-3846-498B-8418-62C793CE0226}" srcId="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" destId="{9365632C-46E0-4E2A-B06E-B83C250F470A}" srcOrd="0" destOrd="0" parTransId="{DE57D657-D8FF-4197-9C8A-5E9C24C0DDD5}" sibTransId="{702AA3FA-143C-4829-807B-3E2165D82E41}"/>
+    <dgm:cxn modelId="{D1D60773-05C1-4C72-B639-FEA0B7E8B81A}" srcId="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" destId="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" srcOrd="1" destOrd="0" parTransId="{97151A69-8AC4-4E59-A190-BBF5924C9707}" sibTransId="{9E85E64C-8AF0-4F74-8521-21D354B59B2E}"/>
+    <dgm:cxn modelId="{B9D94A7A-56CD-45C0-B100-0846BEE5A72D}" type="presOf" srcId="{97151A69-8AC4-4E59-A190-BBF5924C9707}" destId="{4FC2B7DA-9B5C-4F6C-B9A9-0264948C0F1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{87EF378D-9551-44A4-A163-D60D1F56A079}" srcId="{0BDFA6CF-1845-4D3A-8B68-CB3D4DD86F82}" destId="{CEE888A4-A240-4FC6-A40F-4B5C3420187F}" srcOrd="2" destOrd="0" parTransId="{85513BCE-0136-4707-AF97-7073260FFC5A}" sibTransId="{8E53C8A5-AF73-40A8-9AF8-1FACB79BB4BE}"/>
+    <dgm:cxn modelId="{971D48CE-E10A-4FA9-8D0D-8FAA76E920DB}" type="presOf" srcId="{2DC96BBC-BA5B-4255-A75D-222F291D8ABB}" destId="{D3AD48EB-D334-4A0B-9EEC-A5B369473332}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{B911F762-A0E1-47F8-B9FA-E686970A56C2}" type="presParOf" srcId="{4223B999-8A23-4E10-812F-965087AF48EA}" destId="{E08B885A-B4AB-4B46-A5A5-BEFD1BA3E65F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{F76F59A4-D14F-4757-AEC1-3B58224E8371}" type="presParOf" srcId="{E08B885A-B4AB-4B46-A5A5-BEFD1BA3E65F}" destId="{CC762ED6-5B61-4C60-A576-7FBDA3ECF48A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{789203E3-6D25-43A9-B9A6-130756BD2EF9}" type="presParOf" srcId="{CC762ED6-5B61-4C60-A576-7FBDA3ECF48A}" destId="{A4A882EA-FF5E-4A5C-8421-3E5B85E78209}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{D0246577-A8D7-4BC4-A5DD-5A4F0E86B54E}" type="presParOf" srcId="{CC762ED6-5B61-4C60-A576-7FBDA3ECF48A}" destId="{E6C236BA-47DB-4A4C-BAEE-CC94295378F3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{2C3D3B62-BB06-46AC-AFC7-1F1E1FBB7B7F}" type="presParOf" srcId="{E08B885A-B4AB-4B46-A5A5-BEFD1BA3E65F}" destId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{F240BA84-4E77-43AF-95F9-296B4F74AEC5}" type="presParOf" srcId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" destId="{2FDAE205-C724-4E58-A594-77408E464546}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{39CEBF73-F1BA-4E75-8C59-8487ADBA966D}" type="presParOf" srcId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" destId="{45F84F5F-3048-4CF5-A7C7-0622EC377D4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{5C207C9B-FC91-403D-9C1F-D260436FC7BC}" type="presParOf" srcId="{45F84F5F-3048-4CF5-A7C7-0622EC377D4B}" destId="{DFF6ED41-9DB4-41F8-B85F-2CB7F7363D5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{DF678BFE-649D-4850-AEAA-228148ED7E1B}" type="presParOf" srcId="{DFF6ED41-9DB4-41F8-B85F-2CB7F7363D5A}" destId="{9C31D818-38CA-4F31-872B-514D0F946B3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{FEBC1A26-C227-4A98-938B-2079D524EC68}" type="presParOf" srcId="{DFF6ED41-9DB4-41F8-B85F-2CB7F7363D5A}" destId="{4DA573F1-D525-4439-8C4D-D9CEA0C30E85}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{17C5B4F4-6207-468A-800C-B2DE87ADA9CC}" type="presParOf" srcId="{45F84F5F-3048-4CF5-A7C7-0622EC377D4B}" destId="{F24DFF40-5795-4D18-A23E-AFD2B45B9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{14873C58-E502-47AB-A08D-8BDEC067D50A}" type="presParOf" srcId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" destId="{4FC2B7DA-9B5C-4F6C-B9A9-0264948C0F1B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{B19B7CB5-DFB6-43B0-81F1-9C80EAAADBE1}" type="presParOf" srcId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" destId="{BCFCA790-8F74-4A41-B416-43DE854589F7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{065AE2C0-D3E3-408C-9855-589D8405ED95}" type="presParOf" srcId="{BCFCA790-8F74-4A41-B416-43DE854589F7}" destId="{40E48857-8E20-4ADB-B1A5-CB475ACDB7E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{3665048C-15CC-4CD5-8C79-A2DB991B623E}" type="presParOf" srcId="{40E48857-8E20-4ADB-B1A5-CB475ACDB7E9}" destId="{8145B53E-A820-47C9-9684-D75FAE547C8B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{7F0FCAC2-8D42-4A87-82E7-2EBCAD1249A3}" type="presParOf" srcId="{40E48857-8E20-4ADB-B1A5-CB475ACDB7E9}" destId="{D3AD48EB-D334-4A0B-9EEC-A5B369473332}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{A3A2DEB8-1105-4B62-8AB8-DE5E06B8B5B3}" type="presParOf" srcId="{BCFCA790-8F74-4A41-B416-43DE854589F7}" destId="{AA08CC8F-F9D6-4F7E-B961-C81592FC458B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{BB255321-21EB-4DB6-A677-B3D4E0277492}" type="presParOf" srcId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" destId="{A9533BBE-D8AB-4791-A098-50F5AE35DD98}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{89A81598-181D-4223-8C8E-ECBBBF4BD289}" type="presParOf" srcId="{DE2B4EF5-19D4-4504-A340-DADD444F275F}" destId="{68CF7398-602D-447C-8B37-3CAF253E350F}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{45F0308B-B4AF-4410-B29B-B46A5DDB84B7}" type="presParOf" srcId="{68CF7398-602D-447C-8B37-3CAF253E350F}" destId="{F3622770-31AE-4672-A4A7-2138BAC891C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{95587415-A330-4664-B24B-13258AFE138C}" type="presParOf" srcId="{F3622770-31AE-4672-A4A7-2138BAC891C8}" destId="{FE90BA29-306C-4AB5-9943-DA8459E09443}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{D53CCC64-11A5-48D7-BB7E-7AE95CFC1C0D}" type="presParOf" srcId="{F3622770-31AE-4672-A4A7-2138BAC891C8}" destId="{23B88E34-D5AC-41A4-B7CA-96402FEC298E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+    <dgm:cxn modelId="{44474567-053F-4A6C-A423-C87CC248FCB1}" type="presParOf" srcId="{68CF7398-602D-447C-8B37-3CAF253E350F}" destId="{8654E369-8807-4AEA-B3AC-9BE652B659E5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </dgm:whole>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{CE8BB443-F0BE-43DC-836C-1C7BC734525F}" type="doc">
@@ -2788,15 +3994,15 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{D4D7D1FD-B9D5-45C8-8A33-EAC6CFB2877F}">
+    <dsp:sp modelId="{A9533BBE-D8AB-4791-A098-50F5AE35DD98}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8103914" y="2876472"/>
-          <a:ext cx="365682" cy="91440"/>
+          <a:off x="1782561" y="1768863"/>
+          <a:ext cx="1506600" cy="172439"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2807,388 +4013,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="45720"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="90060"/>
+                <a:pt x="0" y="86903"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="365682" y="90060"/>
+                <a:pt x="1506600" y="86903"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="365682" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{BB7D2112-C4ED-44C3-B98F-883FA160F434}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7731933" y="2876472"/>
-          <a:ext cx="371981" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="371981" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="371981" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{9DCCBE8D-E470-41C6-8292-3AB7F994B917}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7350650" y="2509176"/>
-          <a:ext cx="753264" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="753264" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="753264" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{9A4068D7-B31B-4EDB-A21C-C1DF2C9F2432}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6597386" y="2876472"/>
-          <a:ext cx="397407" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="397407" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="397407" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{EAC9D5AE-FCD8-41C9-9F2B-2AE198AE50F7}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6230949" y="2876472"/>
-          <a:ext cx="366437" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="366437" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="366437" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{475780CC-15D6-46DD-A1F7-B7D432B04C99}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6597386" y="2509176"/>
-          <a:ext cx="753264" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="753264" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="753264" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{94E6009D-990D-42CA-850E-92580DF3B7E3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4318482" y="2141880"/>
-          <a:ext cx="3032167" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3032167" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3032167" y="133703"/>
+                <a:pt x="1506600" y="172439"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3222,15 +4056,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{BDCB6748-3B0F-4F4B-BCCA-C219EF7C86EB}">
+    <dsp:sp modelId="{4FC2B7DA-9B5C-4F6C-B9A9-0264948C0F1B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5079353" y="2876472"/>
-          <a:ext cx="447081" cy="91440"/>
+          <a:off x="1735663" y="1768863"/>
+          <a:ext cx="91440" cy="172439"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3241,388 +4075,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="45720"/>
+                <a:pt x="46898" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="90060"/>
+                <a:pt x="46898" y="86903"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="447081" y="90060"/>
+                <a:pt x="45720" y="86903"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="447081" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{1A6AFE89-BFB3-43DD-890B-F95717309C13}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4695867" y="2876472"/>
-          <a:ext cx="383486" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="383486" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="383486" y="89362"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="89362"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133005"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{48598092-96DC-4A84-8B58-8D9BBF2BA32F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4314423" y="2509176"/>
-          <a:ext cx="764929" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="764929" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="764929" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{5A9B50A7-3A5D-4C6F-ADDD-D1639570BE9C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3549494" y="2876472"/>
-          <a:ext cx="355352" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="355352" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="355352" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{A0747607-81A7-49D8-91E5-850720669F41}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3171230" y="2876472"/>
-          <a:ext cx="378263" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="378263" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="378263" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{E55654E6-32B2-42E2-BD6A-CA9E540C071E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3549494" y="2509176"/>
-          <a:ext cx="764929" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="764929" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="764929" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{A9533BBE-D8AB-4791-A098-50F5AE35DD98}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4268703" y="2141880"/>
-          <a:ext cx="91440" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="49779" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="49779" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="133703"/>
+                <a:pt x="45720" y="172439"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3656,15 +4118,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{82861A80-8156-4CBB-8BF5-5E25AD14049E}">
+    <dsp:sp modelId="{2FDAE205-C724-4E58-A594-77408E464546}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2046596" y="2876472"/>
-          <a:ext cx="399711" cy="91440"/>
+          <a:off x="275961" y="1768863"/>
+          <a:ext cx="1506600" cy="172439"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3675,388 +4137,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="45720"/>
+                <a:pt x="1506600" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="90060"/>
+                <a:pt x="1506600" y="86903"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="399711" y="90060"/>
+                <a:pt x="0" y="86903"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="399711" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{3B26FBFC-730A-4B8A-87D5-939D6C6BD823}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1678198" y="2876472"/>
-          <a:ext cx="368397" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="368397" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="368397" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{5C5E4482-C454-4CE3-9E29-72EC1024F0A1}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1286315" y="2509176"/>
-          <a:ext cx="760281" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="760281" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="760281" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B62255F8-D3C6-454F-8966-DD42DF4EE120}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="526034" y="2876472"/>
-          <a:ext cx="384054" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="384054" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="384054" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B4826E96-08CB-4312-97CF-6067330FF2D3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="141979" y="2876472"/>
-          <a:ext cx="384054" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="384054" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="384054" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{3A4E171A-B533-4C7C-92D2-EA7CE2A8C01F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="526034" y="2509176"/>
-          <a:ext cx="760281" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="760281" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="760281" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{2FDAE205-C724-4E58-A594-77408E464546}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1286315" y="2141880"/>
-          <a:ext cx="3032167" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="3032167" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="3032167" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="90060"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="133703"/>
+                <a:pt x="0" y="172439"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4097,8 +4187,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178826" y="1908287"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="1508848" y="1221436"/>
+          <a:ext cx="547426" cy="547426"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4149,8 +4239,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4458139" y="1907589"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="2056274" y="1220068"/>
+          <a:ext cx="821139" cy="547426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4174,12 +4264,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19050" tIns="19050" rIns="19050" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4192,14 +4282,38 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" b="1" u="none" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="1000" b="1" u="none" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1" u="none" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t>CEO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4458139" y="1907589"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="2056274" y="1220068"/>
+        <a:ext cx="821139" cy="547426"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9C31D818-38CA-4F31-872B-514D0F946B3C}">
@@ -4209,8 +4323,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1146658" y="2275583"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="2248" y="1941302"/>
+          <a:ext cx="547426" cy="547426"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4261,8 +4375,1842 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1425971" y="2274885"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="549674" y="1939933"/>
+          <a:ext cx="821139" cy="547426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Henrique</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Engenheiro de Dados</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="549674" y="1939933"/>
+        <a:ext cx="821139" cy="547426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8145B53E-A820-47C9-9684-D75FAE547C8B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1507670" y="1941302"/>
+          <a:ext cx="547426" cy="547426"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-12000" b="-12000"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D3AD48EB-D334-4A0B-9EEC-A5B369473332}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2052739" y="1939933"/>
+          <a:ext cx="825852" cy="547426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Samuel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Cientista de Dados</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2052739" y="1939933"/>
+        <a:ext cx="825852" cy="547426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FE90BA29-306C-4AB5-9943-DA8459E09443}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3015449" y="1941302"/>
+          <a:ext cx="547426" cy="547426"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-11000" b="-11000"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{23B88E34-D5AC-41A4-B7CA-96402FEC298E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3562875" y="1939933"/>
+          <a:ext cx="821139" cy="547426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Bruno</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="700" b="1" kern="1200">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Especialista em Marketing</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3562875" y="1939933"/>
+        <a:ext cx="821139" cy="547426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{D4D7D1FD-B9D5-45C8-8A33-EAC6CFB2877F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8135946" y="2877751"/>
+          <a:ext cx="367127" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="367127" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="367127" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BB7D2112-C4ED-44C3-B98F-883FA160F434}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7762494" y="2877751"/>
+          <a:ext cx="373451" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="373451" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="373451" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9DCCBE8D-E470-41C6-8292-3AB7F994B917}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7379704" y="2509003"/>
+          <a:ext cx="756241" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="756241" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="756241" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9A4068D7-B31B-4EDB-A21C-C1DF2C9F2432}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6623463" y="2877751"/>
+          <a:ext cx="398978" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="398978" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="398978" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{EAC9D5AE-FCD8-41C9-9F2B-2AE198AE50F7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6255577" y="2877751"/>
+          <a:ext cx="367885" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="367885" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="367885" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{475780CC-15D6-46DD-A1F7-B7D432B04C99}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6623463" y="2509003"/>
+          <a:ext cx="756241" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="756241" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="756241" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{94E6009D-990D-42CA-850E-92580DF3B7E3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4335552" y="2140256"/>
+          <a:ext cx="3044152" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3044152" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3044152" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BDCB6748-3B0F-4F4B-BCCA-C219EF7C86EB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5099430" y="2877751"/>
+          <a:ext cx="448848" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="448848" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="448848" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{1A6AFE89-BFB3-43DD-890B-F95717309C13}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4714428" y="2877751"/>
+          <a:ext cx="385001" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="385001" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="385001" y="89535"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="89535"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="133350"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{48598092-96DC-4A84-8B58-8D9BBF2BA32F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4331477" y="2509003"/>
+          <a:ext cx="767953" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="767953" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="767953" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5A9B50A7-3A5D-4C6F-ADDD-D1639570BE9C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3563523" y="2877751"/>
+          <a:ext cx="356756" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="356756" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="356756" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A0747607-81A7-49D8-91E5-850720669F41}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3183765" y="2877751"/>
+          <a:ext cx="379758" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="379758" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="379758" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E55654E6-32B2-42E2-BD6A-CA9E540C071E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3563523" y="2509003"/>
+          <a:ext cx="767953" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="767953" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="767953" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A9533BBE-D8AB-4791-A098-50F5AE35DD98}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4285757" y="2140256"/>
+          <a:ext cx="91440" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="49795" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="49795" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{82861A80-8156-4CBB-8BF5-5E25AD14049E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2054685" y="2877751"/>
+          <a:ext cx="401291" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="401291" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="401291" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3B26FBFC-730A-4B8A-87D5-939D6C6BD823}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1684831" y="2877751"/>
+          <a:ext cx="369854" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="369854" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="369854" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5C5E4482-C454-4CE3-9E29-72EC1024F0A1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1291399" y="2509003"/>
+          <a:ext cx="763286" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="763286" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="763286" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B62255F8-D3C6-454F-8966-DD42DF4EE120}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="528113" y="2877751"/>
+          <a:ext cx="385572" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="385572" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="385572" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B4826E96-08CB-4312-97CF-6067330FF2D3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="142540" y="2877751"/>
+          <a:ext cx="385572" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="385572" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="385572" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3A4E171A-B533-4C7C-92D2-EA7CE2A8C01F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="528113" y="2509003"/>
+          <a:ext cx="763286" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="763286" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="763286" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{2FDAE205-C724-4E58-A594-77408E464546}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1291399" y="2140256"/>
+          <a:ext cx="3044152" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="3044152" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3044152" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90236"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="134051"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A4A882EA-FF5E-4A5C-8421-3E5B85E78209}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4195343" y="1905559"/>
+          <a:ext cx="280416" cy="280416"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E6C236BA-47DB-4A4C-BAEE-CC94295378F3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4475760" y="1904858"/>
+          <a:ext cx="420624" cy="280416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19050" tIns="19050" rIns="19050" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="500" b="1" u="none" kern="1200"/>
+            <a:t>CEO</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4475760" y="1904858"/>
+        <a:ext cx="420624" cy="280416"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9C31D818-38CA-4F31-872B-514D0F946B3C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1151191" y="2274307"/>
+          <a:ext cx="280416" cy="280416"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-3000" b="-3000"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4DA573F1-D525-4439-8C4D-D9CEA0C30E85}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1431607" y="2273606"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4310,8 +6258,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1425971" y="2274885"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="1431607" y="2273606"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1250F72D-60DB-43B0-834A-5EA96D96D80F}">
@@ -4321,8 +6269,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="386377" y="2642879"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="387904" y="2643055"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4373,8 +6321,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="665690" y="2642181"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="668321" y="2642354"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4422,8 +6370,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="665690" y="2642181"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="668321" y="2642354"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6F392430-3A4B-4377-99E5-2B841107A9A2}">
@@ -4433,8 +6381,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2322" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="2332" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4485,8 +6433,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="281635" y="3009477"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="282748" y="3011101"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4534,8 +6482,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="281635" y="3009477"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="282748" y="3011101"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{06617EAB-A912-4FFB-8349-3E44430D3112}">
@@ -4545,8 +6493,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="770432" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="773477" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4597,8 +6545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1049745" y="3009477"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="1053894" y="3011101"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4646,8 +6594,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1049745" y="3009477"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="1053894" y="3011101"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{41BBEB59-EF70-4AEA-9881-EB5BF6EE3538}">
@@ -4657,8 +6605,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1895066" y="2642879"/>
-          <a:ext cx="303059" cy="279312"/>
+          <a:off x="1902557" y="2643055"/>
+          <a:ext cx="304257" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4709,8 +6657,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2200531" y="2642181"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="2209229" y="2642354"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4758,8 +6706,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2200531" y="2642181"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="2209229" y="2642354"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EA21AC87-C4DC-4853-9264-DC2EBF7A7DFD}">
@@ -4769,8 +6717,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1538542" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="1544623" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4821,8 +6769,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1817854" y="3009477"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="1825040" y="3011101"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4870,8 +6818,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1817854" y="3009477"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="1825040" y="3011101"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FC1DFEE3-2398-4E16-AE3D-4F2635645B02}">
@@ -4881,8 +6829,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2306651" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="2315769" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4933,8 +6881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2586316" y="3009477"/>
-          <a:ext cx="332594" cy="279312"/>
+          <a:off x="2596539" y="3011101"/>
+          <a:ext cx="333908" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4982,8 +6930,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2586316" y="3009477"/>
-        <a:ext cx="332594" cy="279312"/>
+        <a:off x="2596539" y="3011101"/>
+        <a:ext cx="333908" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FE90BA29-306C-4AB5-9943-DA8459E09443}">
@@ -4993,8 +6941,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4174767" y="2275583"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="4191268" y="2274307"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5045,8 +6993,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4454080" y="2274885"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="4471685" y="2273606"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5094,8 +7042,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4454080" y="2274885"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="4471685" y="2273606"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB71D438-1DB2-4E92-A4B5-676418847572}">
@@ -5105,8 +7053,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3409837" y="2642879"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="3423315" y="2643055"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5157,8 +7105,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3689150" y="2642181"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="3703732" y="2642354"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5206,8 +7154,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3689150" y="2642181"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="3703732" y="2642354"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{26773E47-B122-45D3-855E-B793488FF916}">
@@ -5217,8 +7165,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3031574" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="3043556" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5269,8 +7217,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3304920" y="3009477"/>
-          <a:ext cx="349981" cy="279312"/>
+          <a:off x="3317983" y="3011101"/>
+          <a:ext cx="351364" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5318,8 +7266,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3304920" y="3009477"/>
-        <a:ext cx="349981" cy="279312"/>
+        <a:off x="3317983" y="3011101"/>
+        <a:ext cx="351364" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{573EDEF5-5CD1-41FF-ACBE-3DF79E8F3D63}">
@@ -5329,8 +7277,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3765190" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="3780072" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5381,8 +7329,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4033972" y="3009477"/>
-          <a:ext cx="464791" cy="279312"/>
+          <a:off x="4049916" y="3011101"/>
+          <a:ext cx="466628" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5431,8 +7379,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4033972" y="3009477"/>
-        <a:ext cx="464791" cy="279312"/>
+        <a:off x="4049916" y="3011101"/>
+        <a:ext cx="466628" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{148A9995-87EC-442A-BF71-CEDE53EA2019}">
@@ -5442,8 +7390,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939697" y="2642879"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="4959221" y="2643055"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5494,8 +7442,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5219009" y="2642181"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="5239638" y="2642354"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5543,8 +7491,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5219009" y="2642181"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="5239638" y="2642354"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4F024B8E-5D77-44F1-B629-61CD8E2D6DD0}">
@@ -5554,8 +7502,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4556211" y="3009477"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="4574220" y="3011101"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5606,8 +7554,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4823610" y="3035047"/>
-          <a:ext cx="543884" cy="226776"/>
+          <a:off x="4842676" y="3036772"/>
+          <a:ext cx="546034" cy="227673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5656,8 +7604,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4823610" y="3035047"/>
-        <a:ext cx="543884" cy="226776"/>
+        <a:off x="4842676" y="3036772"/>
+        <a:ext cx="546034" cy="227673"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8C851992-24F3-4B62-BB29-6CA271940DAF}">
@@ -5667,8 +7615,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5386778" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="5408070" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5719,8 +7667,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5676213" y="3009477"/>
-          <a:ext cx="291778" cy="279312"/>
+          <a:off x="5698649" y="3011101"/>
+          <a:ext cx="292931" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5769,8 +7717,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5676213" y="3009477"/>
-        <a:ext cx="291778" cy="279312"/>
+        <a:off x="5698649" y="3011101"/>
+        <a:ext cx="292931" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{87D3AC67-E8C0-4DD3-AF56-A54675796D39}">
@@ -5780,8 +7728,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7210994" y="2275583"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="7239496" y="2274307"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5832,8 +7780,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7490306" y="2274885"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="7519913" y="2273606"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5881,8 +7829,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7490306" y="2274885"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="7519913" y="2273606"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D71F757-A244-4130-80E7-9F8318DBB160}">
@@ -5892,8 +7840,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6457730" y="2642879"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="6483255" y="2643055"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5944,8 +7892,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6737042" y="2642181"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="6763671" y="2642354"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5993,8 +7941,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6737042" y="2642181"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="6763671" y="2642354"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B5516094-8002-4561-835D-8A1E31A99B4A}">
@@ -6004,8 +7952,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6091293" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="6115369" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6056,8 +8004,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6366801" y="3009477"/>
-          <a:ext cx="410438" cy="279312"/>
+          <a:off x="6391966" y="3011101"/>
+          <a:ext cx="412061" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6106,8 +8054,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6366801" y="3009477"/>
-        <a:ext cx="410438" cy="279312"/>
+        <a:off x="6391966" y="3011101"/>
+        <a:ext cx="412061" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D09ADDAA-7C47-404F-B5F5-44E87A97673F}">
@@ -6117,8 +8065,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6855137" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="6882233" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6169,8 +8117,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7125019" y="3009477"/>
-          <a:ext cx="357028" cy="279312"/>
+          <a:off x="7153181" y="3011101"/>
+          <a:ext cx="358439" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6219,8 +8167,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7125019" y="3009477"/>
-        <a:ext cx="357028" cy="279312"/>
+        <a:off x="7153181" y="3011101"/>
+        <a:ext cx="358439" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EBD4C9B2-EDC4-4292-BB42-6C954E705E13}">
@@ -6230,8 +8178,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7964258" y="2642879"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="7995737" y="2643055"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6282,8 +8230,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8243570" y="2642181"/>
-          <a:ext cx="418968" cy="279312"/>
+          <a:off x="8276154" y="2642354"/>
+          <a:ext cx="420624" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6331,8 +8279,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8243570" y="2642181"/>
-        <a:ext cx="418968" cy="279312"/>
+        <a:off x="8276154" y="2642354"/>
+        <a:ext cx="420624" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{740876E6-F5BF-40DC-BCAF-A91ED8FBB918}">
@@ -6342,8 +8290,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7592277" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="7622286" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6394,8 +8342,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7864211" y="3009477"/>
-          <a:ext cx="358075" cy="279312"/>
+          <a:off x="7895295" y="3011101"/>
+          <a:ext cx="359491" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6444,8 +8392,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7864211" y="3009477"/>
-        <a:ext cx="358075" cy="279312"/>
+        <a:off x="7895295" y="3011101"/>
+        <a:ext cx="359491" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{49C7AFDA-958E-4DD9-8AAB-958FA03F032A}">
@@ -6455,8 +8403,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8329940" y="3010175"/>
-          <a:ext cx="279312" cy="279312"/>
+          <a:off x="8362865" y="3011802"/>
+          <a:ext cx="280416" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6507,8 +8455,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8598852" y="3009477"/>
-          <a:ext cx="431567" cy="279312"/>
+          <a:off x="8632839" y="3011101"/>
+          <a:ext cx="433273" cy="280416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6557,8 +8505,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8598852" y="3009477"/>
-        <a:ext cx="431567" cy="279312"/>
+        <a:off x="8632839" y="3011101"/>
+        <a:ext cx="433273" cy="280416"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6566,6 +8514,567 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="1750"/>
+    <dgm:cat type="picture" pri="23000"/>
+    <dgm:cat type="pictureconvert" pri="23000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="hierChild1">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="w" for="des" forName="composite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="composite" refType="w" refFor="des" refForName="composite" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="composite2" refType="w" refFor="des" refForName="composite"/>
+      <dgm:constr type="h" for="des" forName="composite2" refType="h" refFor="des" refForName="composite"/>
+      <dgm:constr type="w" for="des" forName="composite3" refType="w" refFor="des" refForName="composite"/>
+      <dgm:constr type="h" for="des" forName="composite3" refType="h" refFor="des" refForName="composite"/>
+      <dgm:constr type="w" for="des" forName="composite4" refType="w" refFor="des" refForName="composite"/>
+      <dgm:constr type="h" for="des" forName="composite4" refType="h" refFor="des" refForName="composite"/>
+      <dgm:constr type="w" for="des" forName="composite5" refType="w" refFor="des" refForName="composite"/>
+      <dgm:constr type="h" for="des" forName="composite5" refType="h" refFor="des" refForName="composite"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="composite" fact="0.1"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild4" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild5" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild6" refType="sibSp"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot1" refType="h" refFor="des" refForName="composite" fact="0.25"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot2" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot3" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot4" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot5" refType="sp" refFor="des" refForName="hierRoot1"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="hierRoot1">
+          <dgm:alg type="hierRoot"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="composite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst>
+              <dgm:constr type="h" for="ch" forName="image" refType="h" fact="0.8"/>
+              <dgm:constr type="w" for="ch" forName="image" refType="h" refFor="ch" refForName="image"/>
+              <dgm:constr type="t" for="ch" forName="image" refType="h" fact="0.1"/>
+              <dgm:constr type="l" for="ch" forName="image"/>
+              <dgm:constr type="w" for="ch" forName="text" refType="w" fact="0.6"/>
+              <dgm:constr type="h" for="ch" forName="text" refType="h" fact="0.8"/>
+              <dgm:constr type="t" for="ch" forName="text" refType="w" fact="0.04"/>
+              <dgm:constr type="l" for="ch" forName="text" refType="w" fact="0.4"/>
+            </dgm:constrLst>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="image" styleLbl="node0">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" blipPhldr="1">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="text" styleLbl="revTx">
+              <dgm:varLst>
+                <dgm:chPref val="3"/>
+              </dgm:varLst>
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+              </dgm:alg>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self"/>
+              <dgm:constrLst>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild2">
+            <dgm:choose name="Name5">
+              <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromL"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name7">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromR"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="Name8" axis="ch">
+              <dgm:forEach name="Name9" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="Name10">
+                  <dgm:alg type="conn">
+                    <dgm:param type="dim" val="1D"/>
+                    <dgm:param type="endSty" val="noArr"/>
+                    <dgm:param type="connRout" val="bend"/>
+                    <dgm:param type="bendPt" val="end"/>
+                    <dgm:param type="begPts" val="bCtr"/>
+                    <dgm:param type="endPts" val="tCtr"/>
+                    <dgm:param type="srcNode" val="image"/>
+                    <dgm:param type="dstNode" val="image2"/>
+                  </dgm:alg>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-999">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name11" axis="self" ptType="node">
+                <dgm:layoutNode name="hierRoot2">
+                  <dgm:alg type="hierRoot"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst>
+                    <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="composite2">
+                    <dgm:alg type="composite"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="h" for="ch" forName="image2" refType="h" fact="0.8"/>
+                      <dgm:constr type="w" for="ch" forName="image2" refType="h" refFor="ch" refForName="image2"/>
+                      <dgm:constr type="t" for="ch" forName="image2" refType="h" fact="0.1"/>
+                      <dgm:constr type="l" for="ch" forName="image2"/>
+                      <dgm:constr type="w" for="ch" forName="text2" refType="w" fact="0.6"/>
+                      <dgm:constr type="h" for="ch" forName="text2" refType="h" fact="0.8"/>
+                      <dgm:constr type="t" for="ch" forName="text2" refType="w" fact="0.04"/>
+                      <dgm:constr type="l" for="ch" forName="text2" refType="w" fact="0.4"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst/>
+                    <dgm:layoutNode name="image2">
+                      <dgm:alg type="sp"/>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" blipPhldr="1">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst/>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                    <dgm:layoutNode name="text2" styleLbl="revTx">
+                      <dgm:varLst>
+                        <dgm:chPref val="3"/>
+                      </dgm:varLst>
+                      <dgm:alg type="tx">
+                        <dgm:param type="parTxLTRAlign" val="l"/>
+                        <dgm:param type="parTxRTLAlign" val="r"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                        <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                        <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                        <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst>
+                        <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                      </dgm:ruleLst>
+                    </dgm:layoutNode>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="hierChild3">
+                    <dgm:choose name="Name12">
+                      <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromL"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name14">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromR"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name15" axis="ch">
+                      <dgm:forEach name="Name16" axis="self" ptType="parTrans" cnt="1">
+                        <dgm:layoutNode name="Name17">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="bendPt" val="end"/>
+                            <dgm:param type="begPts" val="bCtr"/>
+                            <dgm:param type="endPts" val="tCtr"/>
+                            <dgm:param type="srcNode" val="image2"/>
+                            <dgm:param type="dstNode" val="image3"/>
+                          </dgm:alg>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-999">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf axis="self"/>
+                          <dgm:constrLst>
+                            <dgm:constr type="begPad"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                          <dgm:ruleLst/>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                      <dgm:forEach name="Name18" axis="self" ptType="node">
+                        <dgm:layoutNode name="hierRoot3">
+                          <dgm:alg type="hierRoot"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                          </dgm:constrLst>
+                          <dgm:ruleLst/>
+                          <dgm:layoutNode name="composite3">
+                            <dgm:alg type="composite"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                            <dgm:constrLst>
+                              <dgm:constr type="h" for="ch" forName="image3" refType="h" fact="0.8"/>
+                              <dgm:constr type="w" for="ch" forName="image3" refType="h" refFor="ch" refForName="image3"/>
+                              <dgm:constr type="t" for="ch" forName="image3" refType="h" fact="0.1"/>
+                              <dgm:constr type="l" for="ch" forName="image3"/>
+                              <dgm:constr type="w" for="ch" forName="text3" refType="w" fact="0.6"/>
+                              <dgm:constr type="h" for="ch" forName="text3" refType="h" fact="0.8"/>
+                              <dgm:constr type="t" for="ch" forName="text3" refType="w" fact="0.04"/>
+                              <dgm:constr type="l" for="ch" forName="text3" refType="w" fact="0.4"/>
+                            </dgm:constrLst>
+                            <dgm:ruleLst/>
+                            <dgm:layoutNode name="image3">
+                              <dgm:alg type="sp"/>
+                              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" blipPhldr="1">
+                                <dgm:adjLst/>
+                              </dgm:shape>
+                              <dgm:presOf/>
+                              <dgm:constrLst/>
+                              <dgm:ruleLst/>
+                            </dgm:layoutNode>
+                            <dgm:layoutNode name="text3" styleLbl="revTx">
+                              <dgm:varLst>
+                                <dgm:chPref val="3"/>
+                              </dgm:varLst>
+                              <dgm:alg type="tx">
+                                <dgm:param type="parTxLTRAlign" val="l"/>
+                                <dgm:param type="parTxRTLAlign" val="r"/>
+                              </dgm:alg>
+                              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                                <dgm:adjLst/>
+                              </dgm:shape>
+                              <dgm:presOf axis="self"/>
+                              <dgm:constrLst>
+                                <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                                <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                                <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                                <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                              </dgm:constrLst>
+                              <dgm:ruleLst>
+                                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                              </dgm:ruleLst>
+                            </dgm:layoutNode>
+                          </dgm:layoutNode>
+                          <dgm:layoutNode name="hierChild4">
+                            <dgm:choose name="Name19">
+                              <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                                <dgm:alg type="hierChild">
+                                  <dgm:param type="linDir" val="fromL"/>
+                                </dgm:alg>
+                              </dgm:if>
+                              <dgm:else name="Name21">
+                                <dgm:alg type="hierChild">
+                                  <dgm:param type="linDir" val="fromR"/>
+                                </dgm:alg>
+                              </dgm:else>
+                            </dgm:choose>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                            <dgm:constrLst/>
+                            <dgm:ruleLst/>
+                            <dgm:forEach name="repeat" axis="ch">
+                              <dgm:forEach name="Name22" axis="self" ptType="parTrans" cnt="1">
+                                <dgm:layoutNode name="Name23">
+                                  <dgm:choose name="Name24">
+                                    <dgm:if name="Name25" axis="self" func="depth" op="lte" val="4">
+                                      <dgm:alg type="conn">
+                                        <dgm:param type="dim" val="1D"/>
+                                        <dgm:param type="endSty" val="noArr"/>
+                                        <dgm:param type="connRout" val="bend"/>
+                                        <dgm:param type="bendPt" val="end"/>
+                                        <dgm:param type="begPts" val="bCtr"/>
+                                        <dgm:param type="endPts" val="tCtr"/>
+                                        <dgm:param type="srcNode" val="image3"/>
+                                        <dgm:param type="dstNode" val="image4"/>
+                                      </dgm:alg>
+                                    </dgm:if>
+                                    <dgm:else name="Name26">
+                                      <dgm:alg type="conn">
+                                        <dgm:param type="dim" val="1D"/>
+                                        <dgm:param type="endSty" val="noArr"/>
+                                        <dgm:param type="connRout" val="bend"/>
+                                        <dgm:param type="bendPt" val="end"/>
+                                        <dgm:param type="begPts" val="bCtr"/>
+                                        <dgm:param type="endPts" val="tCtr"/>
+                                        <dgm:param type="srcNode" val="image4"/>
+                                        <dgm:param type="dstNode" val="image4"/>
+                                      </dgm:alg>
+                                    </dgm:else>
+                                  </dgm:choose>
+                                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-999">
+                                    <dgm:adjLst/>
+                                  </dgm:shape>
+                                  <dgm:presOf axis="self"/>
+                                  <dgm:constrLst>
+                                    <dgm:constr type="begPad"/>
+                                    <dgm:constr type="endPad"/>
+                                  </dgm:constrLst>
+                                  <dgm:ruleLst/>
+                                </dgm:layoutNode>
+                              </dgm:forEach>
+                              <dgm:forEach name="Name27" axis="self" ptType="node">
+                                <dgm:layoutNode name="hierRoot4">
+                                  <dgm:alg type="hierRoot"/>
+                                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                                    <dgm:adjLst/>
+                                  </dgm:shape>
+                                  <dgm:presOf/>
+                                  <dgm:constrLst>
+                                    <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                                  </dgm:constrLst>
+                                  <dgm:ruleLst/>
+                                  <dgm:layoutNode name="composite4">
+                                    <dgm:alg type="composite"/>
+                                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                                      <dgm:adjLst/>
+                                    </dgm:shape>
+                                    <dgm:presOf/>
+                                    <dgm:constrLst>
+                                      <dgm:constr type="h" for="ch" forName="image4" refType="h" fact="0.8"/>
+                                      <dgm:constr type="w" for="ch" forName="image4" refType="h" refFor="ch" refForName="image4"/>
+                                      <dgm:constr type="t" for="ch" forName="image4" refType="h" fact="0.1"/>
+                                      <dgm:constr type="l" for="ch" forName="image4"/>
+                                      <dgm:constr type="w" for="ch" forName="text4" refType="w" fact="0.6"/>
+                                      <dgm:constr type="h" for="ch" forName="text4" refType="h" fact="0.8"/>
+                                      <dgm:constr type="t" for="ch" forName="text4" refType="w" fact="0.04"/>
+                                      <dgm:constr type="l" for="ch" forName="text4" refType="w" fact="0.4"/>
+                                    </dgm:constrLst>
+                                    <dgm:ruleLst/>
+                                    <dgm:layoutNode name="image4">
+                                      <dgm:alg type="sp"/>
+                                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" blipPhldr="1">
+                                        <dgm:adjLst/>
+                                      </dgm:shape>
+                                      <dgm:presOf/>
+                                      <dgm:constrLst/>
+                                      <dgm:ruleLst/>
+                                    </dgm:layoutNode>
+                                    <dgm:layoutNode name="text4" styleLbl="revTx">
+                                      <dgm:varLst>
+                                        <dgm:chPref val="3"/>
+                                      </dgm:varLst>
+                                      <dgm:alg type="tx">
+                                        <dgm:param type="parTxLTRAlign" val="l"/>
+                                        <dgm:param type="parTxRTLAlign" val="r"/>
+                                      </dgm:alg>
+                                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                                        <dgm:adjLst/>
+                                      </dgm:shape>
+                                      <dgm:presOf axis="self"/>
+                                      <dgm:constrLst>
+                                        <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                                        <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                                        <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                                        <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                                      </dgm:constrLst>
+                                      <dgm:ruleLst>
+                                        <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                                      </dgm:ruleLst>
+                                    </dgm:layoutNode>
+                                  </dgm:layoutNode>
+                                  <dgm:layoutNode name="hierChild5">
+                                    <dgm:choose name="Name28">
+                                      <dgm:if name="Name29" func="var" arg="dir" op="equ" val="norm">
+                                        <dgm:alg type="hierChild">
+                                          <dgm:param type="linDir" val="fromL"/>
+                                        </dgm:alg>
+                                      </dgm:if>
+                                      <dgm:else name="Name30">
+                                        <dgm:alg type="hierChild">
+                                          <dgm:param type="linDir" val="fromR"/>
+                                        </dgm:alg>
+                                      </dgm:else>
+                                    </dgm:choose>
+                                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                                      <dgm:adjLst/>
+                                    </dgm:shape>
+                                    <dgm:presOf/>
+                                    <dgm:constrLst/>
+                                    <dgm:ruleLst/>
+                                    <dgm:forEach name="Name31" ref="repeat"/>
+                                  </dgm:layoutNode>
+                                </dgm:layoutNode>
+                              </dgm:forEach>
+                            </dgm:forEach>
+                          </dgm:layoutNode>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:forEach>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2009/layout/CirclePictureHierarchy">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -8160,7 +10669,1082 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple5">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10500"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184548</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303611</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagrama 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B52908-5C9B-49BA-AD75-53D3AA87AAA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8497,10 +12081,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029DE62A-1E06-4C17-91BA-EA4D4CD19FB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A390FDB4-CA16-4B9B-86F3-2B4FF6B3E1B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
